--- a/storage/app/public/datasets_seeders/companies.xlsx
+++ b/storage/app/public/datasets_seeders/companies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exequ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exequ\OneDrive\Documents\Clases\HackaDISC\backend-hackadisc\storage\app\public\datasets_seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAED85-7DF9-437F-A038-0E24DEE21476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B42AF17-C0BD-4DD7-A755-0D91907E3D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +789,9 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1441,6 +1444,9 @@
       <c r="B76" t="s">
         <v>78</v>
       </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -1449,6 +1455,9 @@
       <c r="B77" t="s">
         <v>79</v>
       </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
       <c r="D77">
         <v>117</v>
       </c>
@@ -1460,6 +1469,9 @@
       <c r="B78" t="s">
         <v>80</v>
       </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
       <c r="D78">
         <v>117</v>
       </c>
@@ -1471,6 +1483,9 @@
       <c r="B79" t="s">
         <v>81</v>
       </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
       <c r="D79">
         <v>117</v>
       </c>
@@ -1493,6 +1508,9 @@
       <c r="B81" t="s">
         <v>83</v>
       </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
       <c r="D81">
         <v>117</v>
       </c>
@@ -1537,6 +1555,9 @@
       <c r="B85" t="s">
         <v>88</v>
       </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
       <c r="D85">
         <v>117</v>
       </c>
@@ -1547,6 +1568,9 @@
       </c>
       <c r="B86" t="s">
         <v>89</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
       </c>
       <c r="D86">
         <v>117</v>
